--- a/base_data/size.xlsx
+++ b/base_data/size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\pythonpath\ticket\base_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4C14F9-4347-4C3A-BDA4-92A5BF877A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508E59A2-9145-4321-9876-15E18B33393A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5563" yWindow="3711" windowWidth="15343" windowHeight="8966" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="灶点码（新）" sheetId="1" r:id="rId1"/>
@@ -6297,28 +6297,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="D390" sqref="D390"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K388" sqref="K388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="19" customWidth="1"/>
-    <col min="8" max="9" width="12.21875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="52.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.07421875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.69140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.84375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.4609375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.3046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.23046875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="11.07421875" style="19" customWidth="1"/>
+    <col min="8" max="9" width="12.23046875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="16.765625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="52.3046875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6353,7 +6354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -6384,7 +6385,7 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -6415,7 +6416,7 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -6444,7 +6445,7 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -6473,7 +6474,7 @@
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -6502,7 +6503,7 @@
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -6531,7 +6532,7 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -6560,7 +6561,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -6589,7 +6590,7 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -6620,7 +6621,7 @@
       </c>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -6651,7 +6652,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -6682,7 +6683,7 @@
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -6713,7 +6714,7 @@
       </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -6744,7 +6745,7 @@
       </c>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -6775,7 +6776,7 @@
       </c>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -6804,7 +6805,7 @@
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -6833,7 +6834,7 @@
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -6862,7 +6863,7 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -6891,7 +6892,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -6920,7 +6921,7 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -6949,7 +6950,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -6978,7 +6979,7 @@
       </c>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -7007,7 +7008,7 @@
       </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -7036,7 +7037,7 @@
       </c>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -7065,7 +7066,7 @@
       </c>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -7094,7 +7095,7 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -7123,7 +7124,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -7152,7 +7153,7 @@
       </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -7181,7 +7182,7 @@
       </c>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -7210,7 +7211,7 @@
       </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -7239,7 +7240,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -7268,7 +7269,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -7297,7 +7298,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -7355,7 +7356,7 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -7384,7 +7385,7 @@
       </c>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -7413,7 +7414,7 @@
       </c>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -7442,7 +7443,7 @@
       </c>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -7471,7 +7472,7 @@
       </c>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -7500,7 +7501,7 @@
       </c>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -7529,7 +7530,7 @@
       </c>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -7558,7 +7559,7 @@
       </c>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -7587,7 +7588,7 @@
       </c>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -7616,7 +7617,7 @@
       </c>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -7645,7 +7646,7 @@
       </c>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -7674,7 +7675,7 @@
       </c>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -7703,7 +7704,7 @@
       </c>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -7732,7 +7733,7 @@
       </c>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -7761,7 +7762,7 @@
       </c>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="27.45" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -7792,7 +7793,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -7821,7 +7822,7 @@
       </c>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -7850,7 +7851,7 @@
       </c>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -7879,7 +7880,7 @@
       </c>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -7908,7 +7909,7 @@
       </c>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -7937,7 +7938,7 @@
       </c>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -7966,7 +7967,7 @@
       </c>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -7995,7 +7996,7 @@
       </c>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -8024,7 +8025,7 @@
       </c>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -8053,7 +8054,7 @@
       </c>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -8082,7 +8083,7 @@
       </c>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -8111,7 +8112,7 @@
       </c>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -8140,7 +8141,7 @@
       </c>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -8171,7 +8172,7 @@
       </c>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -8200,7 +8201,7 @@
       </c>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -8231,7 +8232,7 @@
       </c>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -8262,7 +8263,7 @@
       </c>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -8291,7 +8292,7 @@
       </c>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="27.45" x14ac:dyDescent="0.4">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -8322,7 +8323,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -8351,7 +8352,7 @@
       </c>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -8380,7 +8381,7 @@
       </c>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -8409,7 +8410,7 @@
       </c>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -8438,7 +8439,7 @@
       </c>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -8467,7 +8468,7 @@
       </c>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -8525,7 +8526,7 @@
       </c>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -8587,7 +8588,7 @@
       </c>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -8618,7 +8619,7 @@
       </c>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -8649,7 +8650,7 @@
       </c>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="14.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -8680,7 +8681,7 @@
       </c>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="14.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -8711,7 +8712,7 @@
       </c>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -8742,7 +8743,7 @@
       </c>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -8773,7 +8774,7 @@
       </c>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -8804,7 +8805,7 @@
       </c>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -8835,7 +8836,7 @@
       </c>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -8866,7 +8867,7 @@
       </c>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -8897,7 +8898,7 @@
       </c>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -8926,7 +8927,7 @@
       </c>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -8957,7 +8958,7 @@
       </c>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -8988,7 +8989,7 @@
       </c>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -9019,7 +9020,7 @@
       </c>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -9050,7 +9051,7 @@
       </c>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -9081,7 +9082,7 @@
       </c>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -9112,7 +9113,7 @@
       </c>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -9143,7 +9144,7 @@
       </c>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -9174,7 +9175,7 @@
       </c>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -9205,7 +9206,7 @@
       </c>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -9236,7 +9237,7 @@
       </c>
       <c r="K98" s="5"/>
     </row>
-    <row r="99" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -9265,7 +9266,7 @@
       </c>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -9296,7 +9297,7 @@
       </c>
       <c r="K100" s="5"/>
     </row>
-    <row r="101" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -9325,7 +9326,7 @@
       </c>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -9354,7 +9355,7 @@
       </c>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -9383,7 +9384,7 @@
       </c>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -9412,7 +9413,7 @@
       </c>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -9443,7 +9444,7 @@
       </c>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -9474,7 +9475,7 @@
       </c>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -9505,7 +9506,7 @@
       </c>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -9536,7 +9537,7 @@
       </c>
       <c r="K108" s="5"/>
     </row>
-    <row r="109" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -9567,7 +9568,7 @@
       </c>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -9598,7 +9599,7 @@
       </c>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -9629,7 +9630,7 @@
       </c>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -9660,7 +9661,7 @@
       </c>
       <c r="K112" s="5"/>
     </row>
-    <row r="113" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -9691,7 +9692,7 @@
       </c>
       <c r="K113" s="5"/>
     </row>
-    <row r="114" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -9722,7 +9723,7 @@
       </c>
       <c r="K114" s="5"/>
     </row>
-    <row r="115" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -9753,7 +9754,7 @@
       </c>
       <c r="K115" s="5"/>
     </row>
-    <row r="116" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -9784,7 +9785,7 @@
       </c>
       <c r="K116" s="5"/>
     </row>
-    <row r="117" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -9815,7 +9816,7 @@
       </c>
       <c r="K117" s="5"/>
     </row>
-    <row r="118" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -9846,7 +9847,7 @@
       </c>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -9877,7 +9878,7 @@
       </c>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -9908,7 +9909,7 @@
       </c>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -9939,7 +9940,7 @@
       </c>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -9970,7 +9971,7 @@
       </c>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="54.9" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -10003,7 +10004,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -10034,7 +10035,7 @@
       </c>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -10063,7 +10064,7 @@
       </c>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -10092,7 +10093,7 @@
       </c>
       <c r="K126" s="5"/>
     </row>
-    <row r="127" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -10121,7 +10122,7 @@
       </c>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -10150,7 +10151,7 @@
       </c>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -10179,7 +10180,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -10208,7 +10209,7 @@
       </c>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -10237,7 +10238,7 @@
       </c>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -10295,7 +10296,7 @@
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -10324,7 +10325,7 @@
       </c>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -10353,7 +10354,7 @@
       </c>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -10382,7 +10383,7 @@
       </c>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -10411,7 +10412,7 @@
       </c>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -10440,7 +10441,7 @@
       </c>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -10469,7 +10470,7 @@
       </c>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -10498,7 +10499,7 @@
       </c>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -10527,7 +10528,7 @@
       </c>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -10556,7 +10557,7 @@
       </c>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -10585,7 +10586,7 @@
       </c>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -10614,7 +10615,7 @@
       </c>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -10643,7 +10644,7 @@
       </c>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -10672,7 +10673,7 @@
       </c>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -10701,7 +10702,7 @@
       </c>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -10730,7 +10731,7 @@
       </c>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -10759,7 +10760,7 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -10788,7 +10789,7 @@
       </c>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -10817,7 +10818,7 @@
       </c>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -10846,7 +10847,7 @@
       </c>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -10875,7 +10876,7 @@
       </c>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -10904,7 +10905,7 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -10933,7 +10934,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -10962,7 +10963,7 @@
       </c>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -10991,7 +10992,7 @@
       </c>
       <c r="K157" s="5"/>
     </row>
-    <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -11020,7 +11021,7 @@
       </c>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -11049,7 +11050,7 @@
       </c>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -11078,7 +11079,7 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -11107,7 +11108,7 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -11136,7 +11137,7 @@
       </c>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -11165,7 +11166,7 @@
       </c>
       <c r="K163" s="5"/>
     </row>
-    <row r="164" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -11194,7 +11195,7 @@
       </c>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -11223,7 +11224,7 @@
       </c>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -11252,7 +11253,7 @@
       </c>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -11281,7 +11282,7 @@
       </c>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -11310,7 +11311,7 @@
       </c>
       <c r="K168" s="5"/>
     </row>
-    <row r="169" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -11339,7 +11340,7 @@
       </c>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -11368,7 +11369,7 @@
       </c>
       <c r="K170" s="5"/>
     </row>
-    <row r="171" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -11397,7 +11398,7 @@
       </c>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -11426,7 +11427,7 @@
       </c>
       <c r="K172" s="5"/>
     </row>
-    <row r="173" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -11455,7 +11456,7 @@
       </c>
       <c r="K173" s="5"/>
     </row>
-    <row r="174" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -11484,7 +11485,7 @@
       </c>
       <c r="K174" s="5"/>
     </row>
-    <row r="175" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -11513,7 +11514,7 @@
       </c>
       <c r="K175" s="5"/>
     </row>
-    <row r="176" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -11542,7 +11543,7 @@
       </c>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -11571,7 +11572,7 @@
       </c>
       <c r="K177" s="5"/>
     </row>
-    <row r="178" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -11600,7 +11601,7 @@
       </c>
       <c r="K178" s="5"/>
     </row>
-    <row r="179" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -11629,7 +11630,7 @@
       </c>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -11658,7 +11659,7 @@
       </c>
       <c r="K180" s="5"/>
     </row>
-    <row r="181" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -11689,7 +11690,7 @@
       </c>
       <c r="K181" s="5"/>
     </row>
-    <row r="182" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -11718,7 +11719,7 @@
       </c>
       <c r="K182" s="5"/>
     </row>
-    <row r="183" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -11747,7 +11748,7 @@
       </c>
       <c r="K183" s="5"/>
     </row>
-    <row r="184" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -11776,7 +11777,7 @@
       </c>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -11805,7 +11806,7 @@
       </c>
       <c r="K185" s="5"/>
     </row>
-    <row r="186" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -11834,7 +11835,7 @@
       </c>
       <c r="K186" s="5"/>
     </row>
-    <row r="187" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -11863,7 +11864,7 @@
       </c>
       <c r="K187" s="5"/>
     </row>
-    <row r="188" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -11894,7 +11895,7 @@
       </c>
       <c r="K188" s="5"/>
     </row>
-    <row r="189" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -11925,7 +11926,7 @@
       </c>
       <c r="K189" s="5"/>
     </row>
-    <row r="190" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A190" s="5">
         <v>189</v>
       </c>
@@ -11956,7 +11957,7 @@
       </c>
       <c r="K190" s="5"/>
     </row>
-    <row r="191" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -11987,7 +11988,7 @@
       </c>
       <c r="K191" s="5"/>
     </row>
-    <row r="192" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A192" s="5">
         <v>191</v>
       </c>
@@ -12018,7 +12019,7 @@
       </c>
       <c r="K192" s="5"/>
     </row>
-    <row r="193" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -12049,7 +12050,7 @@
       </c>
       <c r="K193" s="5"/>
     </row>
-    <row r="194" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -12080,7 +12081,7 @@
       </c>
       <c r="K194" s="5"/>
     </row>
-    <row r="195" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A195" s="5">
         <v>194</v>
       </c>
@@ -12111,7 +12112,7 @@
       </c>
       <c r="K195" s="5"/>
     </row>
-    <row r="196" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A196" s="5">
         <v>195</v>
       </c>
@@ -12142,7 +12143,7 @@
       </c>
       <c r="K196" s="5"/>
     </row>
-    <row r="197" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A197" s="5">
         <v>196</v>
       </c>
@@ -12173,7 +12174,7 @@
       </c>
       <c r="K197" s="5"/>
     </row>
-    <row r="198" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -12204,7 +12205,7 @@
       </c>
       <c r="K198" s="5"/>
     </row>
-    <row r="199" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -12235,7 +12236,7 @@
       </c>
       <c r="K199" s="5"/>
     </row>
-    <row r="200" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -12266,7 +12267,7 @@
       </c>
       <c r="K200" s="5"/>
     </row>
-    <row r="201" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A201" s="5">
         <v>200</v>
       </c>
@@ -12297,7 +12298,7 @@
       </c>
       <c r="K201" s="5"/>
     </row>
-    <row r="202" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A202" s="5">
         <v>201</v>
       </c>
@@ -12328,7 +12329,7 @@
       </c>
       <c r="K202" s="5"/>
     </row>
-    <row r="203" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A203" s="5">
         <v>202</v>
       </c>
@@ -12359,7 +12360,7 @@
       </c>
       <c r="K203" s="5"/>
     </row>
-    <row r="204" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -12390,7 +12391,7 @@
       </c>
       <c r="K204" s="5"/>
     </row>
-    <row r="205" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A205" s="5">
         <v>204</v>
       </c>
@@ -12421,7 +12422,7 @@
       </c>
       <c r="K205" s="5"/>
     </row>
-    <row r="206" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -12450,7 +12451,7 @@
       </c>
       <c r="K206" s="5"/>
     </row>
-    <row r="207" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A207" s="5">
         <v>206</v>
       </c>
@@ -12479,7 +12480,7 @@
       </c>
       <c r="K207" s="5"/>
     </row>
-    <row r="208" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A208" s="5">
         <v>207</v>
       </c>
@@ -12508,7 +12509,7 @@
       </c>
       <c r="K208" s="5"/>
     </row>
-    <row r="209" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A209" s="5">
         <v>208</v>
       </c>
@@ -12537,7 +12538,7 @@
       </c>
       <c r="K209" s="5"/>
     </row>
-    <row r="210" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A210" s="5">
         <v>209</v>
       </c>
@@ -12566,7 +12567,7 @@
       </c>
       <c r="K210" s="5"/>
     </row>
-    <row r="211" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A211" s="5">
         <v>210</v>
       </c>
@@ -12595,7 +12596,7 @@
       </c>
       <c r="K211" s="5"/>
     </row>
-    <row r="212" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A212" s="5">
         <v>211</v>
       </c>
@@ -12624,7 +12625,7 @@
       </c>
       <c r="K212" s="5"/>
     </row>
-    <row r="213" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A213" s="5">
         <v>212</v>
       </c>
@@ -12653,7 +12654,7 @@
       </c>
       <c r="K213" s="5"/>
     </row>
-    <row r="214" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A214" s="5">
         <v>213</v>
       </c>
@@ -12682,7 +12683,7 @@
       </c>
       <c r="K214" s="5"/>
     </row>
-    <row r="215" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A215" s="5">
         <v>214</v>
       </c>
@@ -12711,7 +12712,7 @@
       </c>
       <c r="K215" s="5"/>
     </row>
-    <row r="216" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A216" s="5">
         <v>215</v>
       </c>
@@ -12740,7 +12741,7 @@
       </c>
       <c r="K216" s="5"/>
     </row>
-    <row r="217" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A217" s="5">
         <v>216</v>
       </c>
@@ -12769,7 +12770,7 @@
       </c>
       <c r="K217" s="5"/>
     </row>
-    <row r="218" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A218" s="5">
         <v>217</v>
       </c>
@@ -12798,7 +12799,7 @@
       </c>
       <c r="K218" s="5"/>
     </row>
-    <row r="219" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A219" s="5">
         <v>218</v>
       </c>
@@ -12827,7 +12828,7 @@
       </c>
       <c r="K219" s="5"/>
     </row>
-    <row r="220" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A220" s="5">
         <v>219</v>
       </c>
@@ -12856,7 +12857,7 @@
       </c>
       <c r="K220" s="5"/>
     </row>
-    <row r="221" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A221" s="5">
         <v>220</v>
       </c>
@@ -12885,7 +12886,7 @@
       </c>
       <c r="K221" s="5"/>
     </row>
-    <row r="222" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A222" s="5">
         <v>221</v>
       </c>
@@ -12914,7 +12915,7 @@
       </c>
       <c r="K222" s="5"/>
     </row>
-    <row r="223" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A223" s="5">
         <v>222</v>
       </c>
@@ -12943,7 +12944,7 @@
       </c>
       <c r="K223" s="5"/>
     </row>
-    <row r="224" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A224" s="5">
         <v>223</v>
       </c>
@@ -12972,7 +12973,7 @@
       </c>
       <c r="K224" s="5"/>
     </row>
-    <row r="225" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A225" s="5">
         <v>224</v>
       </c>
@@ -13001,7 +13002,7 @@
       </c>
       <c r="K225" s="5"/>
     </row>
-    <row r="226" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A226" s="5">
         <v>225</v>
       </c>
@@ -13030,7 +13031,7 @@
       </c>
       <c r="K226" s="5"/>
     </row>
-    <row r="227" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A227" s="5">
         <v>226</v>
       </c>
@@ -13059,7 +13060,7 @@
       </c>
       <c r="K227" s="5"/>
     </row>
-    <row r="228" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A228" s="5">
         <v>227</v>
       </c>
@@ -13088,7 +13089,7 @@
       </c>
       <c r="K228" s="5"/>
     </row>
-    <row r="229" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A229" s="5">
         <v>228</v>
       </c>
@@ -13117,7 +13118,7 @@
       </c>
       <c r="K229" s="5"/>
     </row>
-    <row r="230" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A230" s="5">
         <v>229</v>
       </c>
@@ -13146,7 +13147,7 @@
       </c>
       <c r="K230" s="5"/>
     </row>
-    <row r="231" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A231" s="5">
         <v>230</v>
       </c>
@@ -13175,7 +13176,7 @@
       </c>
       <c r="K231" s="5"/>
     </row>
-    <row r="232" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A232" s="5">
         <v>231</v>
       </c>
@@ -13204,7 +13205,7 @@
       </c>
       <c r="K232" s="5"/>
     </row>
-    <row r="233" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A233" s="5">
         <v>232</v>
       </c>
@@ -13233,7 +13234,7 @@
       </c>
       <c r="K233" s="5"/>
     </row>
-    <row r="234" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A234" s="5">
         <v>233</v>
       </c>
@@ -13264,7 +13265,7 @@
       </c>
       <c r="K234" s="5"/>
     </row>
-    <row r="235" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A235" s="5">
         <v>234</v>
       </c>
@@ -13293,7 +13294,7 @@
       </c>
       <c r="K235" s="5"/>
     </row>
-    <row r="236" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A236" s="5">
         <v>235</v>
       </c>
@@ -13324,7 +13325,7 @@
       </c>
       <c r="K236" s="5"/>
     </row>
-    <row r="237" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A237" s="5">
         <v>236</v>
       </c>
@@ -13353,7 +13354,7 @@
       </c>
       <c r="K237" s="5"/>
     </row>
-    <row r="238" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A238" s="5">
         <v>237</v>
       </c>
@@ -13382,7 +13383,7 @@
       </c>
       <c r="K238" s="5"/>
     </row>
-    <row r="239" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A239" s="5">
         <v>238</v>
       </c>
@@ -13411,7 +13412,7 @@
       </c>
       <c r="K239" s="5"/>
     </row>
-    <row r="240" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -13440,7 +13441,7 @@
       </c>
       <c r="K240" s="5"/>
     </row>
-    <row r="241" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -13469,7 +13470,7 @@
       </c>
       <c r="K241" s="5"/>
     </row>
-    <row r="242" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -13498,7 +13499,7 @@
       </c>
       <c r="K242" s="5"/>
     </row>
-    <row r="243" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A243" s="5">
         <v>242</v>
       </c>
@@ -13527,7 +13528,7 @@
       </c>
       <c r="K243" s="5"/>
     </row>
-    <row r="244" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A244" s="5">
         <v>243</v>
       </c>
@@ -13558,7 +13559,7 @@
       </c>
       <c r="K244" s="5"/>
     </row>
-    <row r="245" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A245" s="5">
         <v>244</v>
       </c>
@@ -13587,7 +13588,7 @@
       </c>
       <c r="K245" s="5"/>
     </row>
-    <row r="246" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A246" s="5">
         <v>245</v>
       </c>
@@ -13616,7 +13617,7 @@
       </c>
       <c r="K246" s="5"/>
     </row>
-    <row r="247" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -13647,7 +13648,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -13676,7 +13677,7 @@
       </c>
       <c r="K248" s="5"/>
     </row>
-    <row r="249" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -13705,7 +13706,7 @@
       </c>
       <c r="K249" s="5"/>
     </row>
-    <row r="250" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -13734,7 +13735,7 @@
       </c>
       <c r="K250" s="5"/>
     </row>
-    <row r="251" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A251" s="5">
         <v>250</v>
       </c>
@@ -13763,7 +13764,7 @@
       </c>
       <c r="K251" s="5"/>
     </row>
-    <row r="252" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -13792,7 +13793,7 @@
       </c>
       <c r="K252" s="5"/>
     </row>
-    <row r="253" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A253" s="5">
         <v>252</v>
       </c>
@@ -13821,7 +13822,7 @@
       </c>
       <c r="K253" s="5"/>
     </row>
-    <row r="254" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A254" s="5">
         <v>253</v>
       </c>
@@ -13850,7 +13851,7 @@
       </c>
       <c r="K254" s="5"/>
     </row>
-    <row r="255" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A255" s="5">
         <v>254</v>
       </c>
@@ -13879,7 +13880,7 @@
       </c>
       <c r="K255" s="5"/>
     </row>
-    <row r="256" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A256" s="5">
         <v>255</v>
       </c>
@@ -13908,7 +13909,7 @@
       </c>
       <c r="K256" s="5"/>
     </row>
-    <row r="257" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A257" s="5">
         <v>256</v>
       </c>
@@ -13937,7 +13938,7 @@
       </c>
       <c r="K257" s="5"/>
     </row>
-    <row r="258" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A258" s="5">
         <v>257</v>
       </c>
@@ -13966,7 +13967,7 @@
       </c>
       <c r="K258" s="5"/>
     </row>
-    <row r="259" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A259" s="5">
         <v>258</v>
       </c>
@@ -13995,7 +13996,7 @@
       </c>
       <c r="K259" s="5"/>
     </row>
-    <row r="260" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A260" s="5">
         <v>259</v>
       </c>
@@ -14024,7 +14025,7 @@
       </c>
       <c r="K260" s="5"/>
     </row>
-    <row r="261" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A261" s="5">
         <v>260</v>
       </c>
@@ -14053,7 +14054,7 @@
       </c>
       <c r="K261" s="5"/>
     </row>
-    <row r="262" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A262" s="5">
         <v>261</v>
       </c>
@@ -14082,7 +14083,7 @@
       </c>
       <c r="K262" s="5"/>
     </row>
-    <row r="263" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A263" s="5">
         <v>262</v>
       </c>
@@ -14111,7 +14112,7 @@
       </c>
       <c r="K263" s="5"/>
     </row>
-    <row r="264" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A264" s="5">
         <v>263</v>
       </c>
@@ -14140,7 +14141,7 @@
       </c>
       <c r="K264" s="5"/>
     </row>
-    <row r="265" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A265" s="5">
         <v>264</v>
       </c>
@@ -14169,7 +14170,7 @@
       </c>
       <c r="K265" s="5"/>
     </row>
-    <row r="266" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A266" s="5">
         <v>265</v>
       </c>
@@ -14198,7 +14199,7 @@
       </c>
       <c r="K266" s="5"/>
     </row>
-    <row r="267" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A267" s="5">
         <v>266</v>
       </c>
@@ -14227,7 +14228,7 @@
       </c>
       <c r="K267" s="5"/>
     </row>
-    <row r="268" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A268" s="5">
         <v>267</v>
       </c>
@@ -14256,7 +14257,7 @@
       </c>
       <c r="K268" s="5"/>
     </row>
-    <row r="269" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A269" s="5">
         <v>268</v>
       </c>
@@ -14285,7 +14286,7 @@
       </c>
       <c r="K269" s="5"/>
     </row>
-    <row r="270" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A270" s="5">
         <v>269</v>
       </c>
@@ -14314,7 +14315,7 @@
       </c>
       <c r="K270" s="5"/>
     </row>
-    <row r="271" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A271" s="5">
         <v>270</v>
       </c>
@@ -14343,7 +14344,7 @@
       </c>
       <c r="K271" s="5"/>
     </row>
-    <row r="272" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A272" s="5">
         <v>271</v>
       </c>
@@ -14372,7 +14373,7 @@
       </c>
       <c r="K272" s="5"/>
     </row>
-    <row r="273" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A273" s="5">
         <v>272</v>
       </c>
@@ -14401,7 +14402,7 @@
       </c>
       <c r="K273" s="5"/>
     </row>
-    <row r="274" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A274" s="5">
         <v>273</v>
       </c>
@@ -14430,7 +14431,7 @@
       </c>
       <c r="K274" s="5"/>
     </row>
-    <row r="275" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -14459,7 +14460,7 @@
       </c>
       <c r="K275" s="5"/>
     </row>
-    <row r="276" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -14488,7 +14489,7 @@
       </c>
       <c r="K276" s="5"/>
     </row>
-    <row r="277" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -14517,7 +14518,7 @@
       </c>
       <c r="K277" s="5"/>
     </row>
-    <row r="278" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -14546,7 +14547,7 @@
       </c>
       <c r="K278" s="5"/>
     </row>
-    <row r="279" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -14575,7 +14576,7 @@
       </c>
       <c r="K279" s="5"/>
     </row>
-    <row r="280" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -14604,7 +14605,7 @@
       </c>
       <c r="K280" s="5"/>
     </row>
-    <row r="281" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -14633,7 +14634,7 @@
       </c>
       <c r="K281" s="5"/>
     </row>
-    <row r="282" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -14662,7 +14663,7 @@
       </c>
       <c r="K282" s="5"/>
     </row>
-    <row r="283" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -14691,7 +14692,7 @@
       </c>
       <c r="K283" s="5"/>
     </row>
-    <row r="284" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -14720,7 +14721,7 @@
       </c>
       <c r="K284" s="5"/>
     </row>
-    <row r="285" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -14749,7 +14750,7 @@
       </c>
       <c r="K285" s="5"/>
     </row>
-    <row r="286" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -14778,7 +14779,7 @@
       </c>
       <c r="K286" s="5"/>
     </row>
-    <row r="287" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -14807,7 +14808,7 @@
       </c>
       <c r="K287" s="5"/>
     </row>
-    <row r="288" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -14838,7 +14839,7 @@
       </c>
       <c r="K288" s="5"/>
     </row>
-    <row r="289" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A289" s="5">
         <v>288</v>
       </c>
@@ -14869,7 +14870,7 @@
       </c>
       <c r="K289" s="5"/>
     </row>
-    <row r="290" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A290" s="5">
         <v>289</v>
       </c>
@@ -14900,7 +14901,7 @@
       </c>
       <c r="K290" s="5"/>
     </row>
-    <row r="291" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A291" s="5">
         <v>290</v>
       </c>
@@ -14931,7 +14932,7 @@
       </c>
       <c r="K291" s="5"/>
     </row>
-    <row r="292" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A292" s="5">
         <v>291</v>
       </c>
@@ -14962,7 +14963,7 @@
       </c>
       <c r="K292" s="5"/>
     </row>
-    <row r="293" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A293" s="5">
         <v>292</v>
       </c>
@@ -14993,7 +14994,7 @@
       </c>
       <c r="K293" s="5"/>
     </row>
-    <row r="294" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A294" s="5">
         <v>293</v>
       </c>
@@ -15024,7 +15025,7 @@
       </c>
       <c r="K294" s="5"/>
     </row>
-    <row r="295" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A295" s="5">
         <v>294</v>
       </c>
@@ -15055,7 +15056,7 @@
       </c>
       <c r="K295" s="5"/>
     </row>
-    <row r="296" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A296" s="5">
         <v>295</v>
       </c>
@@ -15086,7 +15087,7 @@
       </c>
       <c r="K296" s="5"/>
     </row>
-    <row r="297" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A297" s="5">
         <v>296</v>
       </c>
@@ -15117,7 +15118,7 @@
       </c>
       <c r="K297" s="5"/>
     </row>
-    <row r="298" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A298" s="5">
         <v>297</v>
       </c>
@@ -15148,7 +15149,7 @@
       </c>
       <c r="K298" s="5"/>
     </row>
-    <row r="299" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A299" s="5">
         <v>298</v>
       </c>
@@ -15179,7 +15180,7 @@
       </c>
       <c r="K299" s="5"/>
     </row>
-    <row r="300" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A300" s="5">
         <v>299</v>
       </c>
@@ -15210,7 +15211,7 @@
       </c>
       <c r="K300" s="5"/>
     </row>
-    <row r="301" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A301" s="5">
         <v>300</v>
       </c>
@@ -15241,7 +15242,7 @@
       </c>
       <c r="K301" s="5"/>
     </row>
-    <row r="302" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A302" s="5">
         <v>301</v>
       </c>
@@ -15272,7 +15273,7 @@
       </c>
       <c r="K302" s="5"/>
     </row>
-    <row r="303" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A303" s="5">
         <v>302</v>
       </c>
@@ -15303,7 +15304,7 @@
       </c>
       <c r="K303" s="5"/>
     </row>
-    <row r="304" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A304" s="5">
         <v>303</v>
       </c>
@@ -15334,7 +15335,7 @@
       </c>
       <c r="K304" s="5"/>
     </row>
-    <row r="305" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A305" s="5">
         <v>304</v>
       </c>
@@ -15365,7 +15366,7 @@
       </c>
       <c r="K305" s="5"/>
     </row>
-    <row r="306" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A306" s="5">
         <v>305</v>
       </c>
@@ -15396,7 +15397,7 @@
       </c>
       <c r="K306" s="5"/>
     </row>
-    <row r="307" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A307" s="5">
         <v>306</v>
       </c>
@@ -15427,7 +15428,7 @@
       </c>
       <c r="K307" s="5"/>
     </row>
-    <row r="308" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A308" s="5">
         <v>307</v>
       </c>
@@ -15458,7 +15459,7 @@
       </c>
       <c r="K308" s="5"/>
     </row>
-    <row r="309" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A309" s="5">
         <v>308</v>
       </c>
@@ -15489,7 +15490,7 @@
       </c>
       <c r="K309" s="5"/>
     </row>
-    <row r="310" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A310" s="5">
         <v>309</v>
       </c>
@@ -15520,7 +15521,7 @@
       </c>
       <c r="K310" s="5"/>
     </row>
-    <row r="311" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A311" s="5">
         <v>310</v>
       </c>
@@ -15551,7 +15552,7 @@
       </c>
       <c r="K311" s="5"/>
     </row>
-    <row r="312" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A312" s="5">
         <v>311</v>
       </c>
@@ -15582,7 +15583,7 @@
       </c>
       <c r="K312" s="5"/>
     </row>
-    <row r="313" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A313" s="5">
         <v>312</v>
       </c>
@@ -15613,7 +15614,7 @@
       </c>
       <c r="K313" s="5"/>
     </row>
-    <row r="314" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A314" s="5">
         <v>313</v>
       </c>
@@ -15644,7 +15645,7 @@
       </c>
       <c r="K314" s="5"/>
     </row>
-    <row r="315" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A315" s="5">
         <v>314</v>
       </c>
@@ -15675,7 +15676,7 @@
       </c>
       <c r="K315" s="5"/>
     </row>
-    <row r="316" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A316" s="5">
         <v>315</v>
       </c>
@@ -15706,7 +15707,7 @@
       </c>
       <c r="K316" s="5"/>
     </row>
-    <row r="317" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A317" s="5">
         <v>316</v>
       </c>
@@ -15737,7 +15738,7 @@
       </c>
       <c r="K317" s="5"/>
     </row>
-    <row r="318" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A318" s="5">
         <v>317</v>
       </c>
@@ -15766,7 +15767,7 @@
       </c>
       <c r="K318" s="5"/>
     </row>
-    <row r="319" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A319" s="5">
         <v>318</v>
       </c>
@@ -15797,7 +15798,7 @@
       </c>
       <c r="K319" s="5"/>
     </row>
-    <row r="320" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A320" s="5">
         <v>319</v>
       </c>
@@ -15828,7 +15829,7 @@
       </c>
       <c r="K320" s="5"/>
     </row>
-    <row r="321" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A321" s="5">
         <v>320</v>
       </c>
@@ -15859,7 +15860,7 @@
       </c>
       <c r="K321" s="5"/>
     </row>
-    <row r="322" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A322" s="5">
         <v>321</v>
       </c>
@@ -15890,7 +15891,7 @@
       </c>
       <c r="K322" s="5"/>
     </row>
-    <row r="323" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A323" s="5">
         <v>322</v>
       </c>
@@ -15921,7 +15922,7 @@
       </c>
       <c r="K323" s="5"/>
     </row>
-    <row r="324" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A324" s="5">
         <v>323</v>
       </c>
@@ -15952,7 +15953,7 @@
       </c>
       <c r="K324" s="5"/>
     </row>
-    <row r="325" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A325" s="5">
         <v>324</v>
       </c>
@@ -15983,7 +15984,7 @@
       </c>
       <c r="K325" s="5"/>
     </row>
-    <row r="326" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A326" s="5">
         <v>325</v>
       </c>
@@ -16014,7 +16015,7 @@
       </c>
       <c r="K326" s="5"/>
     </row>
-    <row r="327" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A327" s="5">
         <v>326</v>
       </c>
@@ -16045,7 +16046,7 @@
       </c>
       <c r="K327" s="5"/>
     </row>
-    <row r="328" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A328" s="5">
         <v>327</v>
       </c>
@@ -16076,7 +16077,7 @@
       </c>
       <c r="K328" s="5"/>
     </row>
-    <row r="329" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A329" s="5">
         <v>328</v>
       </c>
@@ -16107,7 +16108,7 @@
       </c>
       <c r="K329" s="5"/>
     </row>
-    <row r="330" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A330" s="5">
         <v>329</v>
       </c>
@@ -16138,7 +16139,7 @@
       </c>
       <c r="K330" s="5"/>
     </row>
-    <row r="331" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A331" s="5">
         <v>330</v>
       </c>
@@ -16169,7 +16170,7 @@
       </c>
       <c r="K331" s="5"/>
     </row>
-    <row r="332" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A332" s="5">
         <v>331</v>
       </c>
@@ -16200,7 +16201,7 @@
       </c>
       <c r="K332" s="5"/>
     </row>
-    <row r="333" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A333" s="5">
         <v>332</v>
       </c>
@@ -16231,7 +16232,7 @@
       </c>
       <c r="K333" s="5"/>
     </row>
-    <row r="334" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A334" s="5">
         <v>333</v>
       </c>
@@ -16262,7 +16263,7 @@
       </c>
       <c r="K334" s="5"/>
     </row>
-    <row r="335" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A335" s="5">
         <v>334</v>
       </c>
@@ -16293,7 +16294,7 @@
       </c>
       <c r="K335" s="5"/>
     </row>
-    <row r="336" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A336" s="5">
         <v>335</v>
       </c>
@@ -16324,7 +16325,7 @@
       </c>
       <c r="K336" s="5"/>
     </row>
-    <row r="337" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A337" s="5">
         <v>336</v>
       </c>
@@ -16355,7 +16356,7 @@
       </c>
       <c r="K337" s="5"/>
     </row>
-    <row r="338" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A338" s="5">
         <v>337</v>
       </c>
@@ -16386,7 +16387,7 @@
       </c>
       <c r="K338" s="5"/>
     </row>
-    <row r="339" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A339" s="5">
         <v>338</v>
       </c>
@@ -16417,7 +16418,7 @@
       </c>
       <c r="K339" s="5"/>
     </row>
-    <row r="340" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A340" s="5">
         <v>339</v>
       </c>
@@ -16448,7 +16449,7 @@
       </c>
       <c r="K340" s="5"/>
     </row>
-    <row r="341" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A341" s="5">
         <v>340</v>
       </c>
@@ -16477,7 +16478,7 @@
       </c>
       <c r="K341" s="5"/>
     </row>
-    <row r="342" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A342" s="5">
         <v>341</v>
       </c>
@@ -16506,7 +16507,7 @@
       </c>
       <c r="K342" s="5"/>
     </row>
-    <row r="343" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A343" s="5">
         <v>342</v>
       </c>
@@ -16535,7 +16536,7 @@
       </c>
       <c r="K343" s="5"/>
     </row>
-    <row r="344" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A344" s="5">
         <v>343</v>
       </c>
@@ -16564,7 +16565,7 @@
       </c>
       <c r="K344" s="5"/>
     </row>
-    <row r="345" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A345" s="5">
         <v>344</v>
       </c>
@@ -16593,7 +16594,7 @@
       </c>
       <c r="K345" s="5"/>
     </row>
-    <row r="346" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A346" s="5">
         <v>345</v>
       </c>
@@ -16624,7 +16625,7 @@
       </c>
       <c r="K346" s="5"/>
     </row>
-    <row r="347" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A347" s="5">
         <v>346</v>
       </c>
@@ -16655,7 +16656,7 @@
       </c>
       <c r="K347" s="5"/>
     </row>
-    <row r="348" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A348" s="5">
         <v>347</v>
       </c>
@@ -16684,7 +16685,7 @@
       </c>
       <c r="K348" s="5"/>
     </row>
-    <row r="349" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A349" s="5">
         <v>348</v>
       </c>
@@ -16715,7 +16716,7 @@
       </c>
       <c r="K349" s="5"/>
     </row>
-    <row r="350" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A350" s="5">
         <v>349</v>
       </c>
@@ -16746,7 +16747,7 @@
       </c>
       <c r="K350" s="5"/>
     </row>
-    <row r="351" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A351" s="5">
         <v>350</v>
       </c>
@@ -16777,7 +16778,7 @@
       </c>
       <c r="K351" s="5"/>
     </row>
-    <row r="352" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A352" s="5">
         <v>351</v>
       </c>
@@ -16808,7 +16809,7 @@
       </c>
       <c r="K352" s="5"/>
     </row>
-    <row r="353" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A353" s="5">
         <v>352</v>
       </c>
@@ -16837,7 +16838,7 @@
       </c>
       <c r="K353" s="5"/>
     </row>
-    <row r="354" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A354" s="5">
         <v>353</v>
       </c>
@@ -16868,7 +16869,7 @@
       </c>
       <c r="K354" s="5"/>
     </row>
-    <row r="355" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A355" s="5">
         <v>354</v>
       </c>
@@ -16899,7 +16900,7 @@
       </c>
       <c r="K355" s="5"/>
     </row>
-    <row r="356" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A356" s="5">
         <v>355</v>
       </c>
@@ -16930,7 +16931,7 @@
       </c>
       <c r="K356" s="5"/>
     </row>
-    <row r="357" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A357" s="5">
         <v>356</v>
       </c>
@@ -16961,7 +16962,7 @@
       </c>
       <c r="K357" s="5"/>
     </row>
-    <row r="358" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A358" s="5">
         <v>357</v>
       </c>
@@ -16992,7 +16993,7 @@
       </c>
       <c r="K358" s="5"/>
     </row>
-    <row r="359" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A359" s="5">
         <v>358</v>
       </c>
@@ -17023,7 +17024,7 @@
       </c>
       <c r="K359" s="5"/>
     </row>
-    <row r="360" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A360" s="5">
         <v>359</v>
       </c>
@@ -17054,7 +17055,7 @@
       </c>
       <c r="K360" s="5"/>
     </row>
-    <row r="361" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A361" s="5">
         <v>360</v>
       </c>
@@ -17085,7 +17086,7 @@
       </c>
       <c r="K361" s="5"/>
     </row>
-    <row r="362" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A362" s="5">
         <v>361</v>
       </c>
@@ -17114,7 +17115,7 @@
       </c>
       <c r="K362" s="5"/>
     </row>
-    <row r="363" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A363" s="5">
         <v>362</v>
       </c>
@@ -17145,7 +17146,7 @@
       </c>
       <c r="K363" s="5"/>
     </row>
-    <row r="364" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A364" s="5">
         <v>363</v>
       </c>
@@ -17176,7 +17177,7 @@
       </c>
       <c r="K364" s="5"/>
     </row>
-    <row r="365" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A365" s="5">
         <v>364</v>
       </c>
@@ -17207,7 +17208,7 @@
       </c>
       <c r="K365" s="5"/>
     </row>
-    <row r="366" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A366" s="5">
         <v>365</v>
       </c>
@@ -17238,7 +17239,7 @@
       </c>
       <c r="K366" s="5"/>
     </row>
-    <row r="367" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A367" s="5">
         <v>366</v>
       </c>
@@ -17267,7 +17268,7 @@
       </c>
       <c r="K367" s="5"/>
     </row>
-    <row r="368" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A368" s="5">
         <v>367</v>
       </c>
@@ -17298,7 +17299,7 @@
       </c>
       <c r="K368" s="5"/>
     </row>
-    <row r="369" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A369" s="5">
         <v>368</v>
       </c>
@@ -17329,7 +17330,7 @@
       </c>
       <c r="K369" s="5"/>
     </row>
-    <row r="370" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A370" s="5">
         <v>369</v>
       </c>
@@ -17358,7 +17359,7 @@
       </c>
       <c r="K370" s="5"/>
     </row>
-    <row r="371" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A371" s="5">
         <v>370</v>
       </c>
@@ -17387,7 +17388,7 @@
       </c>
       <c r="K371" s="5"/>
     </row>
-    <row r="372" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A372" s="5">
         <v>371</v>
       </c>
@@ -17416,7 +17417,7 @@
       </c>
       <c r="K372" s="5"/>
     </row>
-    <row r="373" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A373" s="5">
         <v>372</v>
       </c>
@@ -17445,7 +17446,7 @@
       </c>
       <c r="K373" s="5"/>
     </row>
-    <row r="374" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A374" s="5">
         <v>373</v>
       </c>
@@ -17474,7 +17475,7 @@
       </c>
       <c r="K374" s="5"/>
     </row>
-    <row r="375" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A375" s="5">
         <v>374</v>
       </c>
@@ -17503,7 +17504,7 @@
       </c>
       <c r="K375" s="5"/>
     </row>
-    <row r="376" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A376" s="5">
         <v>375</v>
       </c>
@@ -17532,7 +17533,7 @@
       </c>
       <c r="K376" s="5"/>
     </row>
-    <row r="377" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A377" s="5">
         <v>376</v>
       </c>
@@ -17561,7 +17562,7 @@
       </c>
       <c r="K377" s="5"/>
     </row>
-    <row r="378" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A378" s="5">
         <v>377</v>
       </c>
@@ -17590,7 +17591,7 @@
       </c>
       <c r="K378" s="5"/>
     </row>
-    <row r="379" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A379" s="5">
         <v>378</v>
       </c>
@@ -17619,7 +17620,7 @@
       </c>
       <c r="K379" s="5"/>
     </row>
-    <row r="380" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A380" s="5">
         <v>379</v>
       </c>
@@ -17648,7 +17649,7 @@
       </c>
       <c r="K380" s="5"/>
     </row>
-    <row r="381" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A381" s="5">
         <v>380</v>
       </c>
@@ -17677,7 +17678,7 @@
       </c>
       <c r="K381" s="5"/>
     </row>
-    <row r="382" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A382" s="5">
         <v>381</v>
       </c>
@@ -17706,7 +17707,7 @@
       </c>
       <c r="K382" s="5"/>
     </row>
-    <row r="383" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A383" s="5">
         <v>382</v>
       </c>
@@ -17737,7 +17738,7 @@
       </c>
       <c r="K383" s="5"/>
     </row>
-    <row r="384" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A384" s="5">
         <v>383</v>
       </c>
@@ -17766,7 +17767,7 @@
       </c>
       <c r="K384" s="5"/>
     </row>
-    <row r="385" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -17795,7 +17796,7 @@
       </c>
       <c r="K385" s="5"/>
     </row>
-    <row r="386" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A386" s="5">
         <v>385</v>
       </c>
@@ -17825,7 +17826,13 @@
       <c r="K386" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFD386" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:XFD386" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="10">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1">
     <cfRule type="duplicateValues" dxfId="435" priority="27"/>

--- a/base_data/size.xlsx
+++ b/base_data/size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\pythonpath\ticket\base_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508E59A2-9145-4321-9876-15E18B33393A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D254B250-4FB4-472B-A8BD-F45BD841EF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5563" yWindow="3711" windowWidth="15343" windowHeight="8966" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="917" yWindow="-103" windowWidth="21129" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="灶点码（新）" sheetId="1" r:id="rId1"/>
@@ -6297,11 +6297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K388" sqref="K388"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P123" sqref="P123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -6354,7 +6353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -6385,7 +6384,7 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -6416,7 +6415,7 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -6445,7 +6444,7 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -6474,7 +6473,7 @@
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -6503,7 +6502,7 @@
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -6532,7 +6531,7 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -6561,7 +6560,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -6590,7 +6589,7 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -6621,7 +6620,7 @@
       </c>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -6652,7 +6651,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -6683,7 +6682,7 @@
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -6714,7 +6713,7 @@
       </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -6745,7 +6744,7 @@
       </c>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -6776,7 +6775,7 @@
       </c>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -6805,7 +6804,7 @@
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -6834,7 +6833,7 @@
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -6863,7 +6862,7 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -6892,7 +6891,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -6921,7 +6920,7 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -6950,7 +6949,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -6979,7 +6978,7 @@
       </c>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -7008,7 +7007,7 @@
       </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -7037,7 +7036,7 @@
       </c>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -7066,7 +7065,7 @@
       </c>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -7095,7 +7094,7 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -7124,7 +7123,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -7153,7 +7152,7 @@
       </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -7182,7 +7181,7 @@
       </c>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -7211,7 +7210,7 @@
       </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -7240,7 +7239,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -7269,7 +7268,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -7298,7 +7297,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -7327,7 +7326,7 @@
       </c>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -7356,7 +7355,7 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -7385,7 +7384,7 @@
       </c>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -7414,7 +7413,7 @@
       </c>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -7443,7 +7442,7 @@
       </c>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -7472,7 +7471,7 @@
       </c>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -7501,7 +7500,7 @@
       </c>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -7530,7 +7529,7 @@
       </c>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -7559,7 +7558,7 @@
       </c>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -7588,7 +7587,7 @@
       </c>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -7617,7 +7616,7 @@
       </c>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -7646,7 +7645,7 @@
       </c>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -7675,7 +7674,7 @@
       </c>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -7704,7 +7703,7 @@
       </c>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -7733,7 +7732,7 @@
       </c>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -7793,7 +7792,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -7822,7 +7821,7 @@
       </c>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -7851,7 +7850,7 @@
       </c>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -7880,7 +7879,7 @@
       </c>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -7909,7 +7908,7 @@
       </c>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -7938,7 +7937,7 @@
       </c>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -7967,7 +7966,7 @@
       </c>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -7996,7 +7995,7 @@
       </c>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -8025,7 +8024,7 @@
       </c>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -8054,7 +8053,7 @@
       </c>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -8083,7 +8082,7 @@
       </c>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -8112,7 +8111,7 @@
       </c>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -8141,7 +8140,7 @@
       </c>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -8172,7 +8171,7 @@
       </c>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -8201,7 +8200,7 @@
       </c>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -8232,7 +8231,7 @@
       </c>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -8263,7 +8262,7 @@
       </c>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -8323,7 +8322,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -8352,7 +8351,7 @@
       </c>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -8381,7 +8380,7 @@
       </c>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -8410,7 +8409,7 @@
       </c>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -8439,7 +8438,7 @@
       </c>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -8468,7 +8467,7 @@
       </c>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -8497,7 +8496,7 @@
       </c>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -8526,7 +8525,7 @@
       </c>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -8557,7 +8556,7 @@
       </c>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -8588,7 +8587,7 @@
       </c>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -8619,7 +8618,7 @@
       </c>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -8650,7 +8649,7 @@
       </c>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" ht="14.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="14.15" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -8681,7 +8680,7 @@
       </c>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" ht="14.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="14.15" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -8712,7 +8711,7 @@
       </c>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -8743,7 +8742,7 @@
       </c>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -8774,7 +8773,7 @@
       </c>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -8805,7 +8804,7 @@
       </c>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -8836,7 +8835,7 @@
       </c>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -8867,7 +8866,7 @@
       </c>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -8898,7 +8897,7 @@
       </c>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -8927,7 +8926,7 @@
       </c>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -8958,7 +8957,7 @@
       </c>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -8989,7 +8988,7 @@
       </c>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -9020,7 +9019,7 @@
       </c>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -9051,7 +9050,7 @@
       </c>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -9082,7 +9081,7 @@
       </c>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -9113,7 +9112,7 @@
       </c>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -9144,7 +9143,7 @@
       </c>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -9175,7 +9174,7 @@
       </c>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -9206,7 +9205,7 @@
       </c>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -9237,7 +9236,7 @@
       </c>
       <c r="K98" s="5"/>
     </row>
-    <row r="99" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -9266,7 +9265,7 @@
       </c>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -9297,7 +9296,7 @@
       </c>
       <c r="K100" s="5"/>
     </row>
-    <row r="101" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -9326,7 +9325,7 @@
       </c>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -9355,7 +9354,7 @@
       </c>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -9384,7 +9383,7 @@
       </c>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -9413,7 +9412,7 @@
       </c>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -9444,7 +9443,7 @@
       </c>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -9475,7 +9474,7 @@
       </c>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -9506,7 +9505,7 @@
       </c>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -9537,7 +9536,7 @@
       </c>
       <c r="K108" s="5"/>
     </row>
-    <row r="109" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -9568,7 +9567,7 @@
       </c>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -9599,7 +9598,7 @@
       </c>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -9630,7 +9629,7 @@
       </c>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -9661,7 +9660,7 @@
       </c>
       <c r="K112" s="5"/>
     </row>
-    <row r="113" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -9692,7 +9691,7 @@
       </c>
       <c r="K113" s="5"/>
     </row>
-    <row r="114" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -9723,7 +9722,7 @@
       </c>
       <c r="K114" s="5"/>
     </row>
-    <row r="115" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -9754,7 +9753,7 @@
       </c>
       <c r="K115" s="5"/>
     </row>
-    <row r="116" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -9785,7 +9784,7 @@
       </c>
       <c r="K116" s="5"/>
     </row>
-    <row r="117" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -9816,7 +9815,7 @@
       </c>
       <c r="K117" s="5"/>
     </row>
-    <row r="118" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -9847,7 +9846,7 @@
       </c>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -9878,7 +9877,7 @@
       </c>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -9909,7 +9908,7 @@
       </c>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -9940,7 +9939,7 @@
       </c>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -10004,7 +10003,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -10035,7 +10034,7 @@
       </c>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -10064,7 +10063,7 @@
       </c>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -10093,7 +10092,7 @@
       </c>
       <c r="K126" s="5"/>
     </row>
-    <row r="127" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -10122,7 +10121,7 @@
       </c>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -10151,7 +10150,7 @@
       </c>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -10180,7 +10179,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -10209,7 +10208,7 @@
       </c>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -10238,7 +10237,7 @@
       </c>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -10267,7 +10266,7 @@
       </c>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -10296,7 +10295,7 @@
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -10325,7 +10324,7 @@
       </c>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -10354,7 +10353,7 @@
       </c>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -10383,7 +10382,7 @@
       </c>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -10412,7 +10411,7 @@
       </c>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -10441,7 +10440,7 @@
       </c>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -10470,7 +10469,7 @@
       </c>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -10499,7 +10498,7 @@
       </c>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -10528,7 +10527,7 @@
       </c>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -10557,7 +10556,7 @@
       </c>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -10586,7 +10585,7 @@
       </c>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -10615,7 +10614,7 @@
       </c>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -10644,7 +10643,7 @@
       </c>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -10673,7 +10672,7 @@
       </c>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -10702,7 +10701,7 @@
       </c>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -10731,7 +10730,7 @@
       </c>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -10760,7 +10759,7 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -10789,7 +10788,7 @@
       </c>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -10818,7 +10817,7 @@
       </c>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -10847,7 +10846,7 @@
       </c>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -10876,7 +10875,7 @@
       </c>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -10905,7 +10904,7 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -10934,7 +10933,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -10963,7 +10962,7 @@
       </c>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -10992,7 +10991,7 @@
       </c>
       <c r="K157" s="5"/>
     </row>
-    <row r="158" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -11021,7 +11020,7 @@
       </c>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -11050,7 +11049,7 @@
       </c>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -11079,7 +11078,7 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -11108,7 +11107,7 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -11137,7 +11136,7 @@
       </c>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -11166,7 +11165,7 @@
       </c>
       <c r="K163" s="5"/>
     </row>
-    <row r="164" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -11195,7 +11194,7 @@
       </c>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -11224,7 +11223,7 @@
       </c>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -11253,7 +11252,7 @@
       </c>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -11282,7 +11281,7 @@
       </c>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -11311,7 +11310,7 @@
       </c>
       <c r="K168" s="5"/>
     </row>
-    <row r="169" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -11340,7 +11339,7 @@
       </c>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -11369,7 +11368,7 @@
       </c>
       <c r="K170" s="5"/>
     </row>
-    <row r="171" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -11398,7 +11397,7 @@
       </c>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -11427,7 +11426,7 @@
       </c>
       <c r="K172" s="5"/>
     </row>
-    <row r="173" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -11456,7 +11455,7 @@
       </c>
       <c r="K173" s="5"/>
     </row>
-    <row r="174" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -11485,7 +11484,7 @@
       </c>
       <c r="K174" s="5"/>
     </row>
-    <row r="175" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -11514,7 +11513,7 @@
       </c>
       <c r="K175" s="5"/>
     </row>
-    <row r="176" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -11543,7 +11542,7 @@
       </c>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -11572,7 +11571,7 @@
       </c>
       <c r="K177" s="5"/>
     </row>
-    <row r="178" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -11601,7 +11600,7 @@
       </c>
       <c r="K178" s="5"/>
     </row>
-    <row r="179" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -11630,7 +11629,7 @@
       </c>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -11659,7 +11658,7 @@
       </c>
       <c r="K180" s="5"/>
     </row>
-    <row r="181" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -11690,7 +11689,7 @@
       </c>
       <c r="K181" s="5"/>
     </row>
-    <row r="182" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -11719,7 +11718,7 @@
       </c>
       <c r="K182" s="5"/>
     </row>
-    <row r="183" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -11748,7 +11747,7 @@
       </c>
       <c r="K183" s="5"/>
     </row>
-    <row r="184" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -11777,7 +11776,7 @@
       </c>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -11806,7 +11805,7 @@
       </c>
       <c r="K185" s="5"/>
     </row>
-    <row r="186" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -11835,7 +11834,7 @@
       </c>
       <c r="K186" s="5"/>
     </row>
-    <row r="187" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -11864,7 +11863,7 @@
       </c>
       <c r="K187" s="5"/>
     </row>
-    <row r="188" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -11895,7 +11894,7 @@
       </c>
       <c r="K188" s="5"/>
     </row>
-    <row r="189" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -11926,7 +11925,7 @@
       </c>
       <c r="K189" s="5"/>
     </row>
-    <row r="190" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A190" s="5">
         <v>189</v>
       </c>
@@ -11957,7 +11956,7 @@
       </c>
       <c r="K190" s="5"/>
     </row>
-    <row r="191" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -11988,7 +11987,7 @@
       </c>
       <c r="K191" s="5"/>
     </row>
-    <row r="192" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A192" s="5">
         <v>191</v>
       </c>
@@ -12019,7 +12018,7 @@
       </c>
       <c r="K192" s="5"/>
     </row>
-    <row r="193" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -12050,7 +12049,7 @@
       </c>
       <c r="K193" s="5"/>
     </row>
-    <row r="194" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -12081,7 +12080,7 @@
       </c>
       <c r="K194" s="5"/>
     </row>
-    <row r="195" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A195" s="5">
         <v>194</v>
       </c>
@@ -12112,7 +12111,7 @@
       </c>
       <c r="K195" s="5"/>
     </row>
-    <row r="196" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A196" s="5">
         <v>195</v>
       </c>
@@ -12143,7 +12142,7 @@
       </c>
       <c r="K196" s="5"/>
     </row>
-    <row r="197" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A197" s="5">
         <v>196</v>
       </c>
@@ -12174,7 +12173,7 @@
       </c>
       <c r="K197" s="5"/>
     </row>
-    <row r="198" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -12205,7 +12204,7 @@
       </c>
       <c r="K198" s="5"/>
     </row>
-    <row r="199" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -12236,7 +12235,7 @@
       </c>
       <c r="K199" s="5"/>
     </row>
-    <row r="200" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -12267,7 +12266,7 @@
       </c>
       <c r="K200" s="5"/>
     </row>
-    <row r="201" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A201" s="5">
         <v>200</v>
       </c>
@@ -12298,7 +12297,7 @@
       </c>
       <c r="K201" s="5"/>
     </row>
-    <row r="202" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A202" s="5">
         <v>201</v>
       </c>
@@ -12329,7 +12328,7 @@
       </c>
       <c r="K202" s="5"/>
     </row>
-    <row r="203" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A203" s="5">
         <v>202</v>
       </c>
@@ -12360,7 +12359,7 @@
       </c>
       <c r="K203" s="5"/>
     </row>
-    <row r="204" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -12391,7 +12390,7 @@
       </c>
       <c r="K204" s="5"/>
     </row>
-    <row r="205" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A205" s="5">
         <v>204</v>
       </c>
@@ -12422,7 +12421,7 @@
       </c>
       <c r="K205" s="5"/>
     </row>
-    <row r="206" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -12451,7 +12450,7 @@
       </c>
       <c r="K206" s="5"/>
     </row>
-    <row r="207" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A207" s="5">
         <v>206</v>
       </c>
@@ -12480,7 +12479,7 @@
       </c>
       <c r="K207" s="5"/>
     </row>
-    <row r="208" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A208" s="5">
         <v>207</v>
       </c>
@@ -12509,7 +12508,7 @@
       </c>
       <c r="K208" s="5"/>
     </row>
-    <row r="209" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A209" s="5">
         <v>208</v>
       </c>
@@ -12538,7 +12537,7 @@
       </c>
       <c r="K209" s="5"/>
     </row>
-    <row r="210" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A210" s="5">
         <v>209</v>
       </c>
@@ -12567,7 +12566,7 @@
       </c>
       <c r="K210" s="5"/>
     </row>
-    <row r="211" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A211" s="5">
         <v>210</v>
       </c>
@@ -12596,7 +12595,7 @@
       </c>
       <c r="K211" s="5"/>
     </row>
-    <row r="212" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A212" s="5">
         <v>211</v>
       </c>
@@ -12625,7 +12624,7 @@
       </c>
       <c r="K212" s="5"/>
     </row>
-    <row r="213" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A213" s="5">
         <v>212</v>
       </c>
@@ -12654,7 +12653,7 @@
       </c>
       <c r="K213" s="5"/>
     </row>
-    <row r="214" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A214" s="5">
         <v>213</v>
       </c>
@@ -12683,7 +12682,7 @@
       </c>
       <c r="K214" s="5"/>
     </row>
-    <row r="215" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A215" s="5">
         <v>214</v>
       </c>
@@ -12712,7 +12711,7 @@
       </c>
       <c r="K215" s="5"/>
     </row>
-    <row r="216" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A216" s="5">
         <v>215</v>
       </c>
@@ -12741,7 +12740,7 @@
       </c>
       <c r="K216" s="5"/>
     </row>
-    <row r="217" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A217" s="5">
         <v>216</v>
       </c>
@@ -12770,7 +12769,7 @@
       </c>
       <c r="K217" s="5"/>
     </row>
-    <row r="218" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A218" s="5">
         <v>217</v>
       </c>
@@ -12799,7 +12798,7 @@
       </c>
       <c r="K218" s="5"/>
     </row>
-    <row r="219" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A219" s="5">
         <v>218</v>
       </c>
@@ -12828,7 +12827,7 @@
       </c>
       <c r="K219" s="5"/>
     </row>
-    <row r="220" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A220" s="5">
         <v>219</v>
       </c>
@@ -12857,7 +12856,7 @@
       </c>
       <c r="K220" s="5"/>
     </row>
-    <row r="221" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A221" s="5">
         <v>220</v>
       </c>
@@ -12886,7 +12885,7 @@
       </c>
       <c r="K221" s="5"/>
     </row>
-    <row r="222" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A222" s="5">
         <v>221</v>
       </c>
@@ -12915,7 +12914,7 @@
       </c>
       <c r="K222" s="5"/>
     </row>
-    <row r="223" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A223" s="5">
         <v>222</v>
       </c>
@@ -12944,7 +12943,7 @@
       </c>
       <c r="K223" s="5"/>
     </row>
-    <row r="224" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A224" s="5">
         <v>223</v>
       </c>
@@ -12973,7 +12972,7 @@
       </c>
       <c r="K224" s="5"/>
     </row>
-    <row r="225" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A225" s="5">
         <v>224</v>
       </c>
@@ -13002,7 +13001,7 @@
       </c>
       <c r="K225" s="5"/>
     </row>
-    <row r="226" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A226" s="5">
         <v>225</v>
       </c>
@@ -13031,7 +13030,7 @@
       </c>
       <c r="K226" s="5"/>
     </row>
-    <row r="227" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A227" s="5">
         <v>226</v>
       </c>
@@ -13060,7 +13059,7 @@
       </c>
       <c r="K227" s="5"/>
     </row>
-    <row r="228" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A228" s="5">
         <v>227</v>
       </c>
@@ -13089,7 +13088,7 @@
       </c>
       <c r="K228" s="5"/>
     </row>
-    <row r="229" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A229" s="5">
         <v>228</v>
       </c>
@@ -13118,7 +13117,7 @@
       </c>
       <c r="K229" s="5"/>
     </row>
-    <row r="230" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A230" s="5">
         <v>229</v>
       </c>
@@ -13147,7 +13146,7 @@
       </c>
       <c r="K230" s="5"/>
     </row>
-    <row r="231" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A231" s="5">
         <v>230</v>
       </c>
@@ -13176,7 +13175,7 @@
       </c>
       <c r="K231" s="5"/>
     </row>
-    <row r="232" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A232" s="5">
         <v>231</v>
       </c>
@@ -13205,7 +13204,7 @@
       </c>
       <c r="K232" s="5"/>
     </row>
-    <row r="233" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A233" s="5">
         <v>232</v>
       </c>
@@ -13234,7 +13233,7 @@
       </c>
       <c r="K233" s="5"/>
     </row>
-    <row r="234" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A234" s="5">
         <v>233</v>
       </c>
@@ -13265,7 +13264,7 @@
       </c>
       <c r="K234" s="5"/>
     </row>
-    <row r="235" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A235" s="5">
         <v>234</v>
       </c>
@@ -13294,7 +13293,7 @@
       </c>
       <c r="K235" s="5"/>
     </row>
-    <row r="236" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A236" s="5">
         <v>235</v>
       </c>
@@ -13325,7 +13324,7 @@
       </c>
       <c r="K236" s="5"/>
     </row>
-    <row r="237" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A237" s="5">
         <v>236</v>
       </c>
@@ -13354,7 +13353,7 @@
       </c>
       <c r="K237" s="5"/>
     </row>
-    <row r="238" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A238" s="5">
         <v>237</v>
       </c>
@@ -13383,7 +13382,7 @@
       </c>
       <c r="K238" s="5"/>
     </row>
-    <row r="239" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A239" s="5">
         <v>238</v>
       </c>
@@ -13412,7 +13411,7 @@
       </c>
       <c r="K239" s="5"/>
     </row>
-    <row r="240" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -13441,7 +13440,7 @@
       </c>
       <c r="K240" s="5"/>
     </row>
-    <row r="241" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -13470,7 +13469,7 @@
       </c>
       <c r="K241" s="5"/>
     </row>
-    <row r="242" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -13499,7 +13498,7 @@
       </c>
       <c r="K242" s="5"/>
     </row>
-    <row r="243" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A243" s="5">
         <v>242</v>
       </c>
@@ -13528,7 +13527,7 @@
       </c>
       <c r="K243" s="5"/>
     </row>
-    <row r="244" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A244" s="5">
         <v>243</v>
       </c>
@@ -13559,7 +13558,7 @@
       </c>
       <c r="K244" s="5"/>
     </row>
-    <row r="245" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A245" s="5">
         <v>244</v>
       </c>
@@ -13588,7 +13587,7 @@
       </c>
       <c r="K245" s="5"/>
     </row>
-    <row r="246" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A246" s="5">
         <v>245</v>
       </c>
@@ -13648,7 +13647,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -13677,7 +13676,7 @@
       </c>
       <c r="K248" s="5"/>
     </row>
-    <row r="249" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -13706,7 +13705,7 @@
       </c>
       <c r="K249" s="5"/>
     </row>
-    <row r="250" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -13735,7 +13734,7 @@
       </c>
       <c r="K250" s="5"/>
     </row>
-    <row r="251" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A251" s="5">
         <v>250</v>
       </c>
@@ -13764,7 +13763,7 @@
       </c>
       <c r="K251" s="5"/>
     </row>
-    <row r="252" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -13793,7 +13792,7 @@
       </c>
       <c r="K252" s="5"/>
     </row>
-    <row r="253" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A253" s="5">
         <v>252</v>
       </c>
@@ -13822,7 +13821,7 @@
       </c>
       <c r="K253" s="5"/>
     </row>
-    <row r="254" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A254" s="5">
         <v>253</v>
       </c>
@@ -13851,7 +13850,7 @@
       </c>
       <c r="K254" s="5"/>
     </row>
-    <row r="255" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A255" s="5">
         <v>254</v>
       </c>
@@ -13880,7 +13879,7 @@
       </c>
       <c r="K255" s="5"/>
     </row>
-    <row r="256" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A256" s="5">
         <v>255</v>
       </c>
@@ -13909,7 +13908,7 @@
       </c>
       <c r="K256" s="5"/>
     </row>
-    <row r="257" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A257" s="5">
         <v>256</v>
       </c>
@@ -13938,7 +13937,7 @@
       </c>
       <c r="K257" s="5"/>
     </row>
-    <row r="258" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A258" s="5">
         <v>257</v>
       </c>
@@ -13967,7 +13966,7 @@
       </c>
       <c r="K258" s="5"/>
     </row>
-    <row r="259" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A259" s="5">
         <v>258</v>
       </c>
@@ -13996,7 +13995,7 @@
       </c>
       <c r="K259" s="5"/>
     </row>
-    <row r="260" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A260" s="5">
         <v>259</v>
       </c>
@@ -14025,7 +14024,7 @@
       </c>
       <c r="K260" s="5"/>
     </row>
-    <row r="261" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A261" s="5">
         <v>260</v>
       </c>
@@ -14054,7 +14053,7 @@
       </c>
       <c r="K261" s="5"/>
     </row>
-    <row r="262" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A262" s="5">
         <v>261</v>
       </c>
@@ -14083,7 +14082,7 @@
       </c>
       <c r="K262" s="5"/>
     </row>
-    <row r="263" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A263" s="5">
         <v>262</v>
       </c>
@@ -14112,7 +14111,7 @@
       </c>
       <c r="K263" s="5"/>
     </row>
-    <row r="264" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A264" s="5">
         <v>263</v>
       </c>
@@ -14141,7 +14140,7 @@
       </c>
       <c r="K264" s="5"/>
     </row>
-    <row r="265" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A265" s="5">
         <v>264</v>
       </c>
@@ -14170,7 +14169,7 @@
       </c>
       <c r="K265" s="5"/>
     </row>
-    <row r="266" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A266" s="5">
         <v>265</v>
       </c>
@@ -14199,7 +14198,7 @@
       </c>
       <c r="K266" s="5"/>
     </row>
-    <row r="267" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A267" s="5">
         <v>266</v>
       </c>
@@ -14228,7 +14227,7 @@
       </c>
       <c r="K267" s="5"/>
     </row>
-    <row r="268" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A268" s="5">
         <v>267</v>
       </c>
@@ -14257,7 +14256,7 @@
       </c>
       <c r="K268" s="5"/>
     </row>
-    <row r="269" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A269" s="5">
         <v>268</v>
       </c>
@@ -14286,7 +14285,7 @@
       </c>
       <c r="K269" s="5"/>
     </row>
-    <row r="270" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A270" s="5">
         <v>269</v>
       </c>
@@ -14315,7 +14314,7 @@
       </c>
       <c r="K270" s="5"/>
     </row>
-    <row r="271" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A271" s="5">
         <v>270</v>
       </c>
@@ -14344,7 +14343,7 @@
       </c>
       <c r="K271" s="5"/>
     </row>
-    <row r="272" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A272" s="5">
         <v>271</v>
       </c>
@@ -14373,7 +14372,7 @@
       </c>
       <c r="K272" s="5"/>
     </row>
-    <row r="273" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A273" s="5">
         <v>272</v>
       </c>
@@ -14402,7 +14401,7 @@
       </c>
       <c r="K273" s="5"/>
     </row>
-    <row r="274" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A274" s="5">
         <v>273</v>
       </c>
@@ -14431,7 +14430,7 @@
       </c>
       <c r="K274" s="5"/>
     </row>
-    <row r="275" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -14460,7 +14459,7 @@
       </c>
       <c r="K275" s="5"/>
     </row>
-    <row r="276" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -14489,7 +14488,7 @@
       </c>
       <c r="K276" s="5"/>
     </row>
-    <row r="277" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -14518,7 +14517,7 @@
       </c>
       <c r="K277" s="5"/>
     </row>
-    <row r="278" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -14547,7 +14546,7 @@
       </c>
       <c r="K278" s="5"/>
     </row>
-    <row r="279" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -14576,7 +14575,7 @@
       </c>
       <c r="K279" s="5"/>
     </row>
-    <row r="280" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -14605,7 +14604,7 @@
       </c>
       <c r="K280" s="5"/>
     </row>
-    <row r="281" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -14634,7 +14633,7 @@
       </c>
       <c r="K281" s="5"/>
     </row>
-    <row r="282" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -14663,7 +14662,7 @@
       </c>
       <c r="K282" s="5"/>
     </row>
-    <row r="283" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -14692,7 +14691,7 @@
       </c>
       <c r="K283" s="5"/>
     </row>
-    <row r="284" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -14721,7 +14720,7 @@
       </c>
       <c r="K284" s="5"/>
     </row>
-    <row r="285" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -14750,7 +14749,7 @@
       </c>
       <c r="K285" s="5"/>
     </row>
-    <row r="286" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -14779,7 +14778,7 @@
       </c>
       <c r="K286" s="5"/>
     </row>
-    <row r="287" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -14808,7 +14807,7 @@
       </c>
       <c r="K287" s="5"/>
     </row>
-    <row r="288" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -14839,7 +14838,7 @@
       </c>
       <c r="K288" s="5"/>
     </row>
-    <row r="289" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A289" s="5">
         <v>288</v>
       </c>
@@ -14870,7 +14869,7 @@
       </c>
       <c r="K289" s="5"/>
     </row>
-    <row r="290" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A290" s="5">
         <v>289</v>
       </c>
@@ -14901,7 +14900,7 @@
       </c>
       <c r="K290" s="5"/>
     </row>
-    <row r="291" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A291" s="5">
         <v>290</v>
       </c>
@@ -14932,7 +14931,7 @@
       </c>
       <c r="K291" s="5"/>
     </row>
-    <row r="292" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A292" s="5">
         <v>291</v>
       </c>
@@ -14963,7 +14962,7 @@
       </c>
       <c r="K292" s="5"/>
     </row>
-    <row r="293" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A293" s="5">
         <v>292</v>
       </c>
@@ -14994,7 +14993,7 @@
       </c>
       <c r="K293" s="5"/>
     </row>
-    <row r="294" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A294" s="5">
         <v>293</v>
       </c>
@@ -15025,7 +15024,7 @@
       </c>
       <c r="K294" s="5"/>
     </row>
-    <row r="295" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A295" s="5">
         <v>294</v>
       </c>
@@ -15056,7 +15055,7 @@
       </c>
       <c r="K295" s="5"/>
     </row>
-    <row r="296" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A296" s="5">
         <v>295</v>
       </c>
@@ -15087,7 +15086,7 @@
       </c>
       <c r="K296" s="5"/>
     </row>
-    <row r="297" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A297" s="5">
         <v>296</v>
       </c>
@@ -15118,7 +15117,7 @@
       </c>
       <c r="K297" s="5"/>
     </row>
-    <row r="298" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A298" s="5">
         <v>297</v>
       </c>
@@ -15149,7 +15148,7 @@
       </c>
       <c r="K298" s="5"/>
     </row>
-    <row r="299" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A299" s="5">
         <v>298</v>
       </c>
@@ -15180,7 +15179,7 @@
       </c>
       <c r="K299" s="5"/>
     </row>
-    <row r="300" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A300" s="5">
         <v>299</v>
       </c>
@@ -15211,7 +15210,7 @@
       </c>
       <c r="K300" s="5"/>
     </row>
-    <row r="301" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A301" s="5">
         <v>300</v>
       </c>
@@ -15242,7 +15241,7 @@
       </c>
       <c r="K301" s="5"/>
     </row>
-    <row r="302" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A302" s="5">
         <v>301</v>
       </c>
@@ -15273,7 +15272,7 @@
       </c>
       <c r="K302" s="5"/>
     </row>
-    <row r="303" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A303" s="5">
         <v>302</v>
       </c>
@@ -15304,7 +15303,7 @@
       </c>
       <c r="K303" s="5"/>
     </row>
-    <row r="304" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A304" s="5">
         <v>303</v>
       </c>
@@ -15335,7 +15334,7 @@
       </c>
       <c r="K304" s="5"/>
     </row>
-    <row r="305" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A305" s="5">
         <v>304</v>
       </c>
@@ -15366,7 +15365,7 @@
       </c>
       <c r="K305" s="5"/>
     </row>
-    <row r="306" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A306" s="5">
         <v>305</v>
       </c>
@@ -15397,7 +15396,7 @@
       </c>
       <c r="K306" s="5"/>
     </row>
-    <row r="307" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A307" s="5">
         <v>306</v>
       </c>
@@ -15428,7 +15427,7 @@
       </c>
       <c r="K307" s="5"/>
     </row>
-    <row r="308" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A308" s="5">
         <v>307</v>
       </c>
@@ -15459,7 +15458,7 @@
       </c>
       <c r="K308" s="5"/>
     </row>
-    <row r="309" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A309" s="5">
         <v>308</v>
       </c>
@@ -15490,7 +15489,7 @@
       </c>
       <c r="K309" s="5"/>
     </row>
-    <row r="310" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A310" s="5">
         <v>309</v>
       </c>
@@ -15521,7 +15520,7 @@
       </c>
       <c r="K310" s="5"/>
     </row>
-    <row r="311" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A311" s="5">
         <v>310</v>
       </c>
@@ -15552,7 +15551,7 @@
       </c>
       <c r="K311" s="5"/>
     </row>
-    <row r="312" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A312" s="5">
         <v>311</v>
       </c>
@@ -15583,7 +15582,7 @@
       </c>
       <c r="K312" s="5"/>
     </row>
-    <row r="313" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A313" s="5">
         <v>312</v>
       </c>
@@ -15614,7 +15613,7 @@
       </c>
       <c r="K313" s="5"/>
     </row>
-    <row r="314" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A314" s="5">
         <v>313</v>
       </c>
@@ -15645,7 +15644,7 @@
       </c>
       <c r="K314" s="5"/>
     </row>
-    <row r="315" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A315" s="5">
         <v>314</v>
       </c>
@@ -15676,7 +15675,7 @@
       </c>
       <c r="K315" s="5"/>
     </row>
-    <row r="316" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A316" s="5">
         <v>315</v>
       </c>
@@ -15707,7 +15706,7 @@
       </c>
       <c r="K316" s="5"/>
     </row>
-    <row r="317" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A317" s="5">
         <v>316</v>
       </c>
@@ -15738,7 +15737,7 @@
       </c>
       <c r="K317" s="5"/>
     </row>
-    <row r="318" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A318" s="5">
         <v>317</v>
       </c>
@@ -15767,7 +15766,7 @@
       </c>
       <c r="K318" s="5"/>
     </row>
-    <row r="319" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A319" s="5">
         <v>318</v>
       </c>
@@ -15798,7 +15797,7 @@
       </c>
       <c r="K319" s="5"/>
     </row>
-    <row r="320" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A320" s="5">
         <v>319</v>
       </c>
@@ -15829,7 +15828,7 @@
       </c>
       <c r="K320" s="5"/>
     </row>
-    <row r="321" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A321" s="5">
         <v>320</v>
       </c>
@@ -15860,7 +15859,7 @@
       </c>
       <c r="K321" s="5"/>
     </row>
-    <row r="322" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A322" s="5">
         <v>321</v>
       </c>
@@ -15891,7 +15890,7 @@
       </c>
       <c r="K322" s="5"/>
     </row>
-    <row r="323" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A323" s="5">
         <v>322</v>
       </c>
@@ -15922,7 +15921,7 @@
       </c>
       <c r="K323" s="5"/>
     </row>
-    <row r="324" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A324" s="5">
         <v>323</v>
       </c>
@@ -15953,7 +15952,7 @@
       </c>
       <c r="K324" s="5"/>
     </row>
-    <row r="325" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A325" s="5">
         <v>324</v>
       </c>
@@ -15984,7 +15983,7 @@
       </c>
       <c r="K325" s="5"/>
     </row>
-    <row r="326" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A326" s="5">
         <v>325</v>
       </c>
@@ -16015,7 +16014,7 @@
       </c>
       <c r="K326" s="5"/>
     </row>
-    <row r="327" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A327" s="5">
         <v>326</v>
       </c>
@@ -16046,7 +16045,7 @@
       </c>
       <c r="K327" s="5"/>
     </row>
-    <row r="328" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A328" s="5">
         <v>327</v>
       </c>
@@ -16077,7 +16076,7 @@
       </c>
       <c r="K328" s="5"/>
     </row>
-    <row r="329" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A329" s="5">
         <v>328</v>
       </c>
@@ -16108,7 +16107,7 @@
       </c>
       <c r="K329" s="5"/>
     </row>
-    <row r="330" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A330" s="5">
         <v>329</v>
       </c>
@@ -16139,7 +16138,7 @@
       </c>
       <c r="K330" s="5"/>
     </row>
-    <row r="331" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A331" s="5">
         <v>330</v>
       </c>
@@ -16170,7 +16169,7 @@
       </c>
       <c r="K331" s="5"/>
     </row>
-    <row r="332" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A332" s="5">
         <v>331</v>
       </c>
@@ -16201,7 +16200,7 @@
       </c>
       <c r="K332" s="5"/>
     </row>
-    <row r="333" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A333" s="5">
         <v>332</v>
       </c>
@@ -16232,7 +16231,7 @@
       </c>
       <c r="K333" s="5"/>
     </row>
-    <row r="334" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A334" s="5">
         <v>333</v>
       </c>
@@ -16263,7 +16262,7 @@
       </c>
       <c r="K334" s="5"/>
     </row>
-    <row r="335" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A335" s="5">
         <v>334</v>
       </c>
@@ -16294,7 +16293,7 @@
       </c>
       <c r="K335" s="5"/>
     </row>
-    <row r="336" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A336" s="5">
         <v>335</v>
       </c>
@@ -16325,7 +16324,7 @@
       </c>
       <c r="K336" s="5"/>
     </row>
-    <row r="337" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A337" s="5">
         <v>336</v>
       </c>
@@ -16356,7 +16355,7 @@
       </c>
       <c r="K337" s="5"/>
     </row>
-    <row r="338" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A338" s="5">
         <v>337</v>
       </c>
@@ -16387,7 +16386,7 @@
       </c>
       <c r="K338" s="5"/>
     </row>
-    <row r="339" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A339" s="5">
         <v>338</v>
       </c>
@@ -16418,7 +16417,7 @@
       </c>
       <c r="K339" s="5"/>
     </row>
-    <row r="340" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A340" s="5">
         <v>339</v>
       </c>
@@ -16449,7 +16448,7 @@
       </c>
       <c r="K340" s="5"/>
     </row>
-    <row r="341" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A341" s="5">
         <v>340</v>
       </c>
@@ -16478,7 +16477,7 @@
       </c>
       <c r="K341" s="5"/>
     </row>
-    <row r="342" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A342" s="5">
         <v>341</v>
       </c>
@@ -16507,7 +16506,7 @@
       </c>
       <c r="K342" s="5"/>
     </row>
-    <row r="343" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A343" s="5">
         <v>342</v>
       </c>
@@ -16536,7 +16535,7 @@
       </c>
       <c r="K343" s="5"/>
     </row>
-    <row r="344" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A344" s="5">
         <v>343</v>
       </c>
@@ -16565,7 +16564,7 @@
       </c>
       <c r="K344" s="5"/>
     </row>
-    <row r="345" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A345" s="5">
         <v>344</v>
       </c>
@@ -16594,7 +16593,7 @@
       </c>
       <c r="K345" s="5"/>
     </row>
-    <row r="346" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A346" s="5">
         <v>345</v>
       </c>
@@ -16625,7 +16624,7 @@
       </c>
       <c r="K346" s="5"/>
     </row>
-    <row r="347" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A347" s="5">
         <v>346</v>
       </c>
@@ -16656,7 +16655,7 @@
       </c>
       <c r="K347" s="5"/>
     </row>
-    <row r="348" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A348" s="5">
         <v>347</v>
       </c>
@@ -16685,7 +16684,7 @@
       </c>
       <c r="K348" s="5"/>
     </row>
-    <row r="349" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A349" s="5">
         <v>348</v>
       </c>
@@ -16716,7 +16715,7 @@
       </c>
       <c r="K349" s="5"/>
     </row>
-    <row r="350" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A350" s="5">
         <v>349</v>
       </c>
@@ -16747,7 +16746,7 @@
       </c>
       <c r="K350" s="5"/>
     </row>
-    <row r="351" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A351" s="5">
         <v>350</v>
       </c>
@@ -16778,7 +16777,7 @@
       </c>
       <c r="K351" s="5"/>
     </row>
-    <row r="352" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A352" s="5">
         <v>351</v>
       </c>
@@ -16809,7 +16808,7 @@
       </c>
       <c r="K352" s="5"/>
     </row>
-    <row r="353" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A353" s="5">
         <v>352</v>
       </c>
@@ -16838,7 +16837,7 @@
       </c>
       <c r="K353" s="5"/>
     </row>
-    <row r="354" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A354" s="5">
         <v>353</v>
       </c>
@@ -16869,7 +16868,7 @@
       </c>
       <c r="K354" s="5"/>
     </row>
-    <row r="355" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A355" s="5">
         <v>354</v>
       </c>
@@ -16900,7 +16899,7 @@
       </c>
       <c r="K355" s="5"/>
     </row>
-    <row r="356" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A356" s="5">
         <v>355</v>
       </c>
@@ -16931,7 +16930,7 @@
       </c>
       <c r="K356" s="5"/>
     </row>
-    <row r="357" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A357" s="5">
         <v>356</v>
       </c>
@@ -16962,7 +16961,7 @@
       </c>
       <c r="K357" s="5"/>
     </row>
-    <row r="358" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A358" s="5">
         <v>357</v>
       </c>
@@ -16993,7 +16992,7 @@
       </c>
       <c r="K358" s="5"/>
     </row>
-    <row r="359" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A359" s="5">
         <v>358</v>
       </c>
@@ -17024,7 +17023,7 @@
       </c>
       <c r="K359" s="5"/>
     </row>
-    <row r="360" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A360" s="5">
         <v>359</v>
       </c>
@@ -17055,7 +17054,7 @@
       </c>
       <c r="K360" s="5"/>
     </row>
-    <row r="361" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A361" s="5">
         <v>360</v>
       </c>
@@ -17086,7 +17085,7 @@
       </c>
       <c r="K361" s="5"/>
     </row>
-    <row r="362" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A362" s="5">
         <v>361</v>
       </c>
@@ -17115,7 +17114,7 @@
       </c>
       <c r="K362" s="5"/>
     </row>
-    <row r="363" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A363" s="5">
         <v>362</v>
       </c>
@@ -17146,7 +17145,7 @@
       </c>
       <c r="K363" s="5"/>
     </row>
-    <row r="364" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A364" s="5">
         <v>363</v>
       </c>
@@ -17177,7 +17176,7 @@
       </c>
       <c r="K364" s="5"/>
     </row>
-    <row r="365" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A365" s="5">
         <v>364</v>
       </c>
@@ -17208,7 +17207,7 @@
       </c>
       <c r="K365" s="5"/>
     </row>
-    <row r="366" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A366" s="5">
         <v>365</v>
       </c>
@@ -17239,7 +17238,7 @@
       </c>
       <c r="K366" s="5"/>
     </row>
-    <row r="367" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A367" s="5">
         <v>366</v>
       </c>
@@ -17268,7 +17267,7 @@
       </c>
       <c r="K367" s="5"/>
     </row>
-    <row r="368" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A368" s="5">
         <v>367</v>
       </c>
@@ -17299,7 +17298,7 @@
       </c>
       <c r="K368" s="5"/>
     </row>
-    <row r="369" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A369" s="5">
         <v>368</v>
       </c>
@@ -17330,7 +17329,7 @@
       </c>
       <c r="K369" s="5"/>
     </row>
-    <row r="370" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A370" s="5">
         <v>369</v>
       </c>
@@ -17359,7 +17358,7 @@
       </c>
       <c r="K370" s="5"/>
     </row>
-    <row r="371" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A371" s="5">
         <v>370</v>
       </c>
@@ -17388,7 +17387,7 @@
       </c>
       <c r="K371" s="5"/>
     </row>
-    <row r="372" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A372" s="5">
         <v>371</v>
       </c>
@@ -17417,7 +17416,7 @@
       </c>
       <c r="K372" s="5"/>
     </row>
-    <row r="373" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A373" s="5">
         <v>372</v>
       </c>
@@ -17446,7 +17445,7 @@
       </c>
       <c r="K373" s="5"/>
     </row>
-    <row r="374" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A374" s="5">
         <v>373</v>
       </c>
@@ -17475,7 +17474,7 @@
       </c>
       <c r="K374" s="5"/>
     </row>
-    <row r="375" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A375" s="5">
         <v>374</v>
       </c>
@@ -17504,7 +17503,7 @@
       </c>
       <c r="K375" s="5"/>
     </row>
-    <row r="376" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A376" s="5">
         <v>375</v>
       </c>
@@ -17533,7 +17532,7 @@
       </c>
       <c r="K376" s="5"/>
     </row>
-    <row r="377" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A377" s="5">
         <v>376</v>
       </c>
@@ -17562,7 +17561,7 @@
       </c>
       <c r="K377" s="5"/>
     </row>
-    <row r="378" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A378" s="5">
         <v>377</v>
       </c>
@@ -17591,7 +17590,7 @@
       </c>
       <c r="K378" s="5"/>
     </row>
-    <row r="379" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A379" s="5">
         <v>378</v>
       </c>
@@ -17620,7 +17619,7 @@
       </c>
       <c r="K379" s="5"/>
     </row>
-    <row r="380" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A380" s="5">
         <v>379</v>
       </c>
@@ -17649,7 +17648,7 @@
       </c>
       <c r="K380" s="5"/>
     </row>
-    <row r="381" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A381" s="5">
         <v>380</v>
       </c>
@@ -17678,7 +17677,7 @@
       </c>
       <c r="K381" s="5"/>
     </row>
-    <row r="382" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A382" s="5">
         <v>381</v>
       </c>
@@ -17707,7 +17706,7 @@
       </c>
       <c r="K382" s="5"/>
     </row>
-    <row r="383" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A383" s="5">
         <v>382</v>
       </c>
@@ -17738,7 +17737,7 @@
       </c>
       <c r="K383" s="5"/>
     </row>
-    <row r="384" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A384" s="5">
         <v>383</v>
       </c>
@@ -17767,7 +17766,7 @@
       </c>
       <c r="K384" s="5"/>
     </row>
-    <row r="385" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -17796,7 +17795,7 @@
       </c>
       <c r="K385" s="5"/>
     </row>
-    <row r="386" spans="1:11" ht="13.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:11" ht="13.75" x14ac:dyDescent="0.4">
       <c r="A386" s="5">
         <v>385</v>
       </c>
@@ -17826,13 +17825,7 @@
       <c r="K386" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFD386" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="10">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:XFD386" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1">
     <cfRule type="duplicateValues" dxfId="435" priority="27"/>
